--- a/public/database/Trabajos.xlsx
+++ b/public/database/Trabajos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Aguilera\Desktop\Trabajo (SPA)\ProyectoReact\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206FB24A-47A1-495C-898B-FC2B51739B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC712269-88F7-4216-9E22-1D825A90B909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>SitioWeb</t>
   </si>
@@ -50,13 +50,61 @@
   </si>
   <si>
     <t>2025-08-22T20:07:38.324Z</t>
+  </si>
+  <si>
+    <t>NombreCliente</t>
+  </si>
+  <si>
+    <t>EmailCliente</t>
+  </si>
+  <si>
+    <t>LogoCliente</t>
+  </si>
+  <si>
+    <t>Ricardo Garrido</t>
+  </si>
+  <si>
+    <t>Matias Aguilera</t>
+  </si>
+  <si>
+    <t>Maivelyn Sanchez</t>
+  </si>
+  <si>
+    <t>Ignacio Aguilera</t>
+  </si>
+  <si>
+    <t>ivelpink.cl@gmail.com</t>
+  </si>
+  <si>
+    <t>aguilera.matias.salinas@gmail.com</t>
+  </si>
+  <si>
+    <t>ag.investigadoresprivados@gmail.com</t>
+  </si>
+  <si>
+    <t>TelefonoCliente</t>
+  </si>
+  <si>
+    <t>plataformas.web.cl@gmail.com</t>
+  </si>
+  <si>
+    <t>https://mastracker.cl/logo-masautomatizacion.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ivelpink.cl/logo-ivelpink-correo.png</t>
+  </si>
+  <si>
+    <t>https://investigadores-privados.cl/logo-investigaciones-1.png</t>
+  </si>
+  <si>
+    <t>https://plataformas-web.cl/logo-plataformas-web-correo.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +120,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,20 +160,279 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -128,6 +443,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46FE6C4C-D961-4B2E-BBBB-8DF733707B4D}" name="Table1" displayName="Table1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A1:I5" xr:uid="{46FE6C4C-D961-4B2E-BBBB-8DF733707B4D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F44C2490-3847-4BFB-A73F-725890F8AB0C}" name="SitioWeb" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BB709362-9B94-4E20-BFEC-6E529D73E375}" name="NombreCliente" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D7105E87-D631-48DF-8686-4FB55A423298}" name="EmailCliente" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F2199F5B-084F-4C4B-BBAC-07A962FA6D27}" name="LogoCliente" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7D49854F-3891-4DC2-9EEC-163632B128D5}" name="TelefonoCliente" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{57659688-FACA-4798-9599-35ADD62F40A4}" name="Porcentaje" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{2B083999-8D37-4327-A532-83E118B80535}" name="Estado" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{CF3618EA-3443-410A-A4CC-DB46EC7DBA8D}" name="TipoApp" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{03F753F4-5203-4960-ACEC-25FF136E0F03}" name="FechaCreacion" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,107 +750,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>56946873014</v>
+      </c>
+      <c r="F2" s="1">
         <v>60</v>
       </c>
-      <c r="C2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>56922292189</v>
+      </c>
+      <c r="F3" s="1">
         <v>80</v>
       </c>
-      <c r="C3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1">
+        <v>56936300432</v>
+      </c>
+      <c r="F4" s="1">
         <v>100</v>
       </c>
-      <c r="C4">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>56992914526</v>
+      </c>
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{13B94EAF-209D-49DA-9217-BF513A83FEA2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>